--- a/class_grades.xlsx
+++ b/class_grades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roviljr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b3b23e2ea30ba61/Other things/SCHOOL CLASS RECORDING AND ACTIVITIES/4th year 1st sem/ML LAB/Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BF9A28-99BC-4D0A-8B5B-8380A60F0078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A4BF9A28-99BC-4D0A-8B5B-8380A60F0078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CF53556-F419-4957-A0ED-5135CBFF9360}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="480" windowWidth="18360" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class_grades" sheetId="1" r:id="rId1"/>
@@ -924,7 +924,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +963,7 @@
         <v>90.42</v>
       </c>
       <c r="E2" s="1">
-        <v>80.42</v>
+        <v>50.42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>95.26</v>
       </c>
       <c r="E3" s="1">
-        <v>92.779200000000003</v>
+        <v>62.779200000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>94.52</v>
       </c>
       <c r="E4" s="1">
-        <v>81.319999999999993</v>
+        <v>41.32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="E10" s="1">
-        <v>93.147199999999998</v>
+        <v>53.147199999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/class_grades.xlsx
+++ b/class_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b3b23e2ea30ba61/Other things/SCHOOL CLASS RECORDING AND ACTIVITIES/4th year 1st sem/ML LAB/Machine-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A4BF9A28-99BC-4D0A-8B5B-8380A60F0078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CF53556-F419-4957-A0ED-5135CBFF9360}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A4BF9A28-99BC-4D0A-8B5B-8380A60F0078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF8DE011-2268-4EF5-B797-E724DECA2435}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="480" windowWidth="18360" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -924,7 +924,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,10 +957,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>89.52</v>
+        <v>69.52</v>
       </c>
       <c r="D2" s="1">
-        <v>90.42</v>
+        <v>70.42</v>
       </c>
       <c r="E2" s="1">
         <v>50.42</v>
@@ -1082,7 +1082,7 @@
         <v>68</v>
       </c>
       <c r="E9" s="1">
-        <v>94.867199999999997</v>
+        <v>64.867199999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>68.2</v>
       </c>
       <c r="D13" s="1">
-        <v>94.36</v>
+        <v>64.36</v>
       </c>
       <c r="E13" s="1">
-        <v>94.32</v>
+        <v>50.32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
